--- a/Task 2/cost_comparison.xlsx
+++ b/Task 2/cost_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielchan/Dropbox/Udacity_AWS_Architect/Project_2/chandc-AWS_Architect_Performance_Scalability/Task 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF560F89-9D81-6C41-BF52-D43339FC113A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7488B-E9A3-B741-AA3B-46BF839041BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="6280" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B465EAAF-C6D6-634C-8261-6802ECB4F83E}"/>
+    <workbookView xWindow="36560" yWindow="9440" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B465EAAF-C6D6-634C-8261-6802ECB4F83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial vs. Reduced" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,10 +133,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -138,9 +146,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2773,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF117D21-180C-894F-BC73-F2D7702EF875}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2786,7 +2796,7 @@
     <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2810,8 +2820,12 @@
       <c r="D2">
         <v>1902.62</v>
       </c>
+      <c r="P2" s="4">
+        <f>C2/8317</f>
+        <v>0.37121077311530482</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2824,8 +2838,12 @@
       <c r="D3">
         <v>1732.86</v>
       </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P14" si="0">C3/8317</f>
+        <v>0.22251052062041601</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2838,8 +2856,12 @@
       <c r="D4">
         <v>1425.28</v>
       </c>
+      <c r="P4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21421185523626307</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2852,8 +2874,12 @@
       <c r="D5">
         <v>505</v>
       </c>
+      <c r="P5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0719009258145967E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2866,8 +2892,12 @@
       <c r="D6">
         <v>500.05</v>
       </c>
+      <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0123842731754237E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2880,8 +2910,12 @@
       <c r="D7">
         <v>178.7</v>
       </c>
+      <c r="P7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2690874113261994E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2894,8 +2928,12 @@
       <c r="D8">
         <v>237.98</v>
       </c>
+      <c r="P8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8613682818323913E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2908,8 +2946,12 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="P9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2922,8 +2964,12 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2936,8 +2982,12 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="P11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2950,8 +3000,12 @@
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="P12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3018,12 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="P13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2977,6 +3035,28 @@
       </c>
       <c r="D14">
         <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <f>1 - D2/C2</f>
+        <v>0.38373885779435957</v>
+      </c>
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="1">
+        <f>C2-D2</f>
+        <v>1184.7399999999902</v>
+      </c>
+    </row>
+    <row r="25" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <f>Q23/1817</f>
+        <v>0.65203082003301605</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +3073,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
